--- a/biology/Zoologie/Charinus_vulgaris/Charinus_vulgaris.xlsx
+++ b/biology/Zoologie/Charinus_vulgaris/Charinus_vulgaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus vulgaris est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre au Rondônia vers Porto Velho. Elle a été introduite à Salvador de Bahia[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre au Rondônia vers Porto Velho. Elle a été introduite à Salvador de Bahia.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace des femelles mesure de 2,5 à 3,7 mm de long sur de 3,3 à 5,5 mm et l'abdomen de 3,9 à 6,2 mm[3].
-La carapace des femelles décrites par Miranda, Giupponi, Prendini et Scharff en 2021 mesure de 1,78 à 2,03 mm de long sur de 2,38 à 2,75 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace des femelles mesure de 2,5 à 3,7 mm de long sur de 3,3 à 5,5 mm et l'abdomen de 3,9 à 6,2 mm.
+La carapace des femelles décrites par Miranda, Giupponi, Prendini et Scharff en 2021 mesure de 1,78 à 2,03 mm de long sur de 2,38 à 2,75 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Miranda &amp; Giupponi, 2011 : « A new synanthropic species of Charinus Simon, 1892 from Brazilian Amazonia and notes on the genus (Arachnida: Amblypygi: Charinidae). » Zootaxa, no 2980, p. 61–68.</t>
         </is>
